--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3860411.264139206</v>
+        <v>3856357.138379826</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>260.1857705812446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>320.3404723548125</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>66.4005512133147</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2045977996602</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>50.10896315666967</v>
+        <v>33.38304376059058</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247899</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>80.74432540575884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.2347568737165</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>165.4745593363185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>33.016279769442</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>43.73846614325473</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.84205284513808</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.02919805176154</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>98.79136808967718</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.2411842166464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>80.56978887874854</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>97.98413062224122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>13.03790159951732</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>165.1666147997988</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.99837838564109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605713749</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>45.16086499484882</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
-        <v>106.1291803787684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53.3007612348484</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.986492286525</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.986492286525</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.986492286525</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.19823968828</v>
+        <v>785.8089260594415</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>374.823021269834</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.986492286525</v>
+        <v>1171.597178657686</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322059</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.37029594375</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033384</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D5" t="n">
-        <v>581.142080396588</v>
+        <v>1354.075868958389</v>
       </c>
       <c r="E5" t="n">
-        <v>581.142080396588</v>
+        <v>968.2876163601445</v>
       </c>
       <c r="F5" t="n">
-        <v>574.1965796473845</v>
+        <v>557.301711570537</v>
       </c>
       <c r="G5" t="n">
-        <v>159.124129492381</v>
+        <v>142.2292614155335</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.33740552049</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794327</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450756</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180642</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919562</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.37029594375</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927795</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>732.1533772316434</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>563.2171943037365</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>413.1005548914007</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242374</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242374</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242374</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.594421205413</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>913.8018420618831</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>287.5978169884295</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,13 +4819,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.726874697683</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1159.448589009555</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1159.448589009555</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>931.4590381115378</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>710.6664589680076</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5026,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872154</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>526.565882642405</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300692</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300692</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>279.7087630373442</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>137.9969318795423</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>94.56320294380259</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>244.2098454714573</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5712,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>849.3843576263199</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3260.450525729773</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>3091.514342801866</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>2941.397703389531</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807138</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4206.993227946391</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>3952.308739740504</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>3662.891569703543</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>3662.891569703543</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>3442.098990560013</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226939</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947871</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000582</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529337</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3033.629298638937</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2864.69311571103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2714.576476298694</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2566.663382716301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2419.773435218391</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4208.161551753571</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3953.477063547684</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3664.059893510724</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3436.070342612707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3215.277763469177</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961526</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192724</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111728</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.5840502527391</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684979</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649657</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981035</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701964</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578605</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578605</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578605</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611857</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138394</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.3164847283433</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400693</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121622</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851786</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851786</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851786</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000584</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138394</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703091</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1581.18466155292</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7642,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.5911984019045</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.598721155460225e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.4047682534892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7316302469138</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.3434691354484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>205.6146855104956</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>151.7319110345167</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>127.7255247667959</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1465727897268</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>60.54304058923836</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.5862749664538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124988</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>180.5487903941883</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
-        <v>146.0084629450596</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>92.12028678808284</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349396</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977555</v>
       </c>
       <c r="K2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121065</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605463</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.212659602363904e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312004</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9947.144321768843</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.14432176885</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9947.144321768885</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768877</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26441,19 +26441,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.144321768861</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768952</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="L4" t="n">
-        <v>9947.144321768857</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768752</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545104.2408053098</v>
+        <v>-545104.24080531</v>
       </c>
       <c r="C6" t="n">
-        <v>400008.864351056</v>
+        <v>400008.8643510565</v>
       </c>
       <c r="D6" t="n">
-        <v>603447.605963163</v>
+        <v>603447.6059631628</v>
       </c>
       <c r="E6" t="n">
-        <v>350485.7987447243</v>
+        <v>350138.4194903675</v>
       </c>
       <c r="F6" t="n">
-        <v>675898.2605520796</v>
+        <v>675550.8812977225</v>
       </c>
       <c r="G6" t="n">
-        <v>675898.26055208</v>
+        <v>675550.8812977229</v>
       </c>
       <c r="H6" t="n">
-        <v>675898.2605520796</v>
+        <v>675550.8812977233</v>
       </c>
       <c r="I6" t="n">
-        <v>675898.2605520799</v>
+        <v>675550.881297723</v>
       </c>
       <c r="J6" t="n">
-        <v>508293.082742097</v>
+        <v>507945.7034877401</v>
       </c>
       <c r="K6" t="n">
-        <v>626788.1678460253</v>
+        <v>626440.7885916684</v>
       </c>
       <c r="L6" t="n">
-        <v>675898.2605520796</v>
+        <v>675550.8812977229</v>
       </c>
       <c r="M6" t="n">
-        <v>590843.2326165684</v>
+        <v>590495.8533622108</v>
       </c>
       <c r="N6" t="n">
-        <v>675898.26055208</v>
+        <v>675550.8812977227</v>
       </c>
       <c r="O6" t="n">
-        <v>675898.2605520796</v>
+        <v>675550.8812977228</v>
       </c>
       <c r="P6" t="n">
-        <v>675898.26055208</v>
+        <v>675550.8812977228</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,7 +27260,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>146.6902751604669</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>91.20723041814148</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.38005555243458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>244.4988012306508</v>
+        <v>261.2247206267299</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.68963724081033</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>75.73292083663679</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>144.0062118436965</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992146</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>86.66308398750945</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.591286086285833e-15</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28329,19 +28329,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30048,13 +30048,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-2.14116423212229e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>300.5543663814913</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>100.2764607028593</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,10 +32101,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>704.1404939038093</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>459.3154675919701</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>640.7275049411303</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>150.7833302198378</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327591</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>161.9999866016171</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7540807028593007</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7987818204761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318498</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7192231475257</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>498.1312604966859</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>23.94570355317107</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3856357.138379826</v>
+        <v>3858117.668682612</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>320.3404723548125</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>194.4848902928756</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>66.4005512133147</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>371.3219973877833</v>
       </c>
       <c r="H5" t="n">
-        <v>33.38304376059058</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>218.8748435506837</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991666</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.73846614325473</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428253</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176154</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934424</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>65.67353929277157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1171.597178657686</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.597178657686</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.597178657686</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>785.8089260594415</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>374.823021269834</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4333,7 +4333,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2365.889944265938</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>2365.889944265938</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>2365.889944265938</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657686</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.597178657686</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.543024838023</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4482,7 +4482,7 @@
         <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C5" t="n">
-        <v>1712.341567565139</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="D5" t="n">
-        <v>1354.075868958389</v>
+        <v>894.5676446164468</v>
       </c>
       <c r="E5" t="n">
-        <v>968.2876163601445</v>
+        <v>894.5676446164468</v>
       </c>
       <c r="F5" t="n">
-        <v>557.301711570537</v>
+        <v>483.5817398268393</v>
       </c>
       <c r="G5" t="n">
-        <v>142.2292614155335</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866153</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605073</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038043</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490881</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926365</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>298.629863103029</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884295</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102165</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459506</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336148</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512217</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533114</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533114</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533114</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
         <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048574</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>446.9048623224643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>279.7087630373442</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9969318795423</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,52 +6451,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,19 +6776,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7548,16 +7548,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,37 +7569,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52737017531081</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303771</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194133</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>72.1196935303856</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.7319110345167</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634687.7742349396</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977557</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605451</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768816</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768843</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.14432176885</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545104.24080531</v>
+        <v>-545104.2408053096</v>
       </c>
       <c r="C6" t="n">
-        <v>400008.8643510565</v>
+        <v>400008.8643510563</v>
       </c>
       <c r="D6" t="n">
-        <v>603447.6059631628</v>
+        <v>603447.6059631624</v>
       </c>
       <c r="E6" t="n">
-        <v>350138.4194903675</v>
+        <v>350451.0608192885</v>
       </c>
       <c r="F6" t="n">
-        <v>675550.8812977225</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="G6" t="n">
-        <v>675550.8812977229</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="H6" t="n">
-        <v>675550.8812977233</v>
+        <v>675863.522626644</v>
       </c>
       <c r="I6" t="n">
-        <v>675550.881297723</v>
+        <v>675863.5226266441</v>
       </c>
       <c r="J6" t="n">
-        <v>507945.7034877401</v>
+        <v>508258.3448166616</v>
       </c>
       <c r="K6" t="n">
-        <v>626440.7885916684</v>
+        <v>626753.4299205898</v>
       </c>
       <c r="L6" t="n">
-        <v>675550.8812977229</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="M6" t="n">
-        <v>590495.8533622108</v>
+        <v>590808.4946911323</v>
       </c>
       <c r="N6" t="n">
-        <v>675550.8812977227</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="O6" t="n">
-        <v>675550.8812977228</v>
+        <v>675863.5226266441</v>
       </c>
       <c r="P6" t="n">
-        <v>675550.8812977228</v>
+        <v>675863.5226266442</v>
       </c>
     </row>
   </sheetData>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>91.20723041814148</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>56.56035983558644</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80.85095794181414</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80.85095794181413</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>39.59972826567014</v>
       </c>
       <c r="H5" t="n">
-        <v>261.2247206267299</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>75.73292083663679</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923771</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992146</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29565,13 +29565,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960755</v>
+        <v>281.0363767960748</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>466.5925882502527</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313201</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -36138,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740572</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>332.6181808359224</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
